--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2628.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2628.xlsx
@@ -354,7 +354,7 @@
         <v>1.550625442623213</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.675835904649649</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2628.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2628.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7936789969113591</v>
+        <v>1.258580684661865</v>
       </c>
       <c r="B1">
-        <v>1.550625442623213</v>
+        <v>2.375397682189941</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.425321340560913</v>
       </c>
       <c r="D1">
-        <v>1.675835904649649</v>
+        <v>2.59455943107605</v>
       </c>
       <c r="E1">
-        <v>0.892471355420878</v>
+        <v>1.355193376541138</v>
       </c>
     </row>
   </sheetData>
